--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,111 +40,102 @@
     <t>name</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>insane</t>
   </si>
   <si>
-    <t>guilty</t>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>sorry</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>stupid</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>destroying</t>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>shocking</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>frightening</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -160,9 +151,6 @@
     <t>[UNK]</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -178,76 +166,85 @@
     <t>best</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>high</t>
+    <t>love</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>okay</t>
+    <t>honestly</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
+    <t>pretty</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>live</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>whole</t>
   </si>
   <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>digital</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>true</t>
@@ -256,58 +253,34 @@
     <t>much</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>twitter</t>
+    <t>media</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>dilemma</t>
   </si>
   <si>
     <t>documentary</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>watched</t>
   </si>
   <si>
     <t>positive</t>
@@ -668,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -679,7 +652,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -740,10 +713,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -758,16 +731,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -790,10 +763,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -808,16 +781,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -837,13 +810,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -855,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -879,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -887,13 +860,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9666666666666667</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -905,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.88</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -929,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -937,13 +910,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9423076923076923</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C7">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -955,19 +928,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -979,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -987,13 +960,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9393939393939394</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C8">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1005,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>0.8666666666666667</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L8">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1029,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1058,16 +1031,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1079,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1108,16 +1081,16 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.7241379310344828</v>
+        <v>0.68</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1129,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1137,13 +1110,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1158,16 +1131,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.7222222222222222</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1179,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1187,13 +1160,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7777777777777778</v>
+        <v>0.8125</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1205,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.7192982456140351</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1229,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1237,13 +1210,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1255,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.6923076923076923</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1279,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1287,13 +1260,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1305,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.68</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L14">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M14">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1329,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1337,13 +1310,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1355,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.631578947368421</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1379,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1387,49 +1360,49 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <v>15</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>12</v>
-      </c>
-      <c r="D16">
-        <v>12</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16">
-        <v>0.6</v>
-      </c>
-      <c r="L16">
-        <v>6</v>
-      </c>
-      <c r="M16">
-        <v>6</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1437,13 +1410,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7368421052631579</v>
+        <v>0.725</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1455,19 +1428,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="L17">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1479,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1487,13 +1460,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7272727272727273</v>
+        <v>0.7</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1508,16 +1481,16 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.5666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1529,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1537,13 +1510,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1555,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>0.5555555555555556</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1579,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1587,37 +1560,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>7</v>
       </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <v>0.5</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1629,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1637,13 +1610,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1655,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K21">
-        <v>0.4722222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1679,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1687,13 +1660,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6571428571428571</v>
+        <v>0.6159420289855072</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1705,19 +1678,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K22">
-        <v>0.4285714285714285</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="L22">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1729,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1737,13 +1710,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6521739130434783</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1755,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.4166666666666667</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1779,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1787,13 +1760,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.625</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1805,19 +1778,19 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="L24">
         <v>6</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K24">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="L24">
-        <v>12</v>
-      </c>
       <c r="M24">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1829,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1837,13 +1810,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6086956521739131</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C25">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1855,19 +1828,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K25">
-        <v>0.3157894736842105</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L25">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1879,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1887,13 +1860,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6</v>
+        <v>0.5625</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1905,19 +1878,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K26">
-        <v>0.3043478260869565</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1929,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1937,13 +1910,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5957446808510638</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1955,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K27">
-        <v>0.2714025500910747</v>
+        <v>0.2695810564663024</v>
       </c>
       <c r="L27">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M27">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1979,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1987,13 +1960,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5882352941176471</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2005,19 +1978,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K28">
-        <v>0.2542372881355932</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2029,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2037,13 +2010,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2055,13 +2028,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K29">
-        <v>0.2307692307692308</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L29">
         <v>6</v>
@@ -2079,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2087,13 +2060,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2105,19 +2078,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K30">
-        <v>0.2285714285714286</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2129,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2137,13 +2110,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5769230769230769</v>
+        <v>0.5</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2155,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31">
+        <v>0.180327868852459</v>
+      </c>
+      <c r="L31">
         <v>11</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K31">
-        <v>0.2195121951219512</v>
-      </c>
-      <c r="L31">
-        <v>9</v>
-      </c>
       <c r="M31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2179,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2187,38 +2160,38 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5714285714285714</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>14</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="L32">
         <v>8</v>
       </c>
-      <c r="D32">
+      <c r="M32">
         <v>8</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>6</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K32">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="L32">
-        <v>6</v>
-      </c>
-      <c r="M32">
-        <v>6</v>
-      </c>
       <c r="N32">
         <v>1</v>
       </c>
@@ -2229,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2237,13 +2210,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5416666666666666</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2255,19 +2228,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K33">
-        <v>0.2112676056338028</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2279,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2287,13 +2260,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4615384615384616</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2305,19 +2278,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K34">
-        <v>0.2</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2329,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2337,13 +2310,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4285714285714285</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2355,19 +2328,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K35">
-        <v>0.1967213114754098</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="L35">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M35">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2379,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2387,13 +2360,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2405,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K36">
-        <v>0.1739130434782609</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="L36">
         <v>8</v>
@@ -2429,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2437,13 +2410,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3571428571428572</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2455,19 +2428,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K37">
-        <v>0.1666666666666667</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="L37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2479,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2487,13 +2460,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3333333333333333</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2505,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K38">
-        <v>0.1506849315068493</v>
+        <v>0.05572289156626506</v>
       </c>
       <c r="L38">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="M38">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2529,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>62</v>
+        <v>627</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2537,187 +2510,115 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3333333333333333</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="J39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="L39">
+        <v>30</v>
+      </c>
+      <c r="M39">
+        <v>30</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K40">
+        <v>0.05504587155963303</v>
+      </c>
+      <c r="L40">
+        <v>6</v>
+      </c>
+      <c r="M40">
+        <v>6</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K41">
+        <v>0.04225352112676056</v>
+      </c>
+      <c r="L41">
+        <v>33</v>
+      </c>
+      <c r="M41">
+        <v>33</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K39">
-        <v>0.1368421052631579</v>
-      </c>
-      <c r="L39">
-        <v>13</v>
-      </c>
-      <c r="M39">
-        <v>13</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="C40">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>8</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>20</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K40">
-        <v>0.1346153846153846</v>
-      </c>
-      <c r="L40">
-        <v>7</v>
-      </c>
-      <c r="M40">
-        <v>7</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="C41">
-        <v>13</v>
-      </c>
-      <c r="D41">
-        <v>13</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>65</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K41">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="L41">
-        <v>6</v>
-      </c>
-      <c r="M41">
-        <v>6</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>0.04026845637583892</v>
-      </c>
-      <c r="C42">
-        <v>12</v>
-      </c>
-      <c r="D42">
-        <v>13</v>
-      </c>
-      <c r="E42">
-        <v>0.08</v>
-      </c>
-      <c r="F42">
-        <v>0.92</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>286</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="K42">
-        <v>0.1058823529411765</v>
+        <v>0.04058441558441558</v>
       </c>
       <c r="L42">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M42">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2729,21 +2630,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>76</v>
+        <v>591</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K43">
-        <v>0.0583941605839416</v>
+        <v>0.02932551319648094</v>
       </c>
       <c r="L43">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M43">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2755,21 +2656,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>129</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K44">
-        <v>0.05653710247349823</v>
+        <v>0.02649769585253456</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2781,21 +2682,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>267</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K45">
-        <v>0.04969879518072289</v>
+        <v>0.0253968253968254</v>
       </c>
       <c r="L45">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="M45">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2807,21 +2708,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>631</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K46">
-        <v>0.04814814814814815</v>
+        <v>0.02120141342756184</v>
       </c>
       <c r="L46">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="M46">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2833,163 +2734,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K47">
-        <v>0.04105571847507331</v>
-      </c>
-      <c r="L47">
-        <v>14</v>
-      </c>
-      <c r="M47">
-        <v>14</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K48">
-        <v>0.03896103896103896</v>
-      </c>
-      <c r="L48">
-        <v>24</v>
-      </c>
-      <c r="M48">
-        <v>24</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K49">
-        <v>0.03201024327784891</v>
-      </c>
-      <c r="L49">
-        <v>25</v>
-      </c>
-      <c r="M49">
-        <v>25</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K50">
-        <v>0.02534562211981567</v>
-      </c>
-      <c r="L50">
-        <v>44</v>
-      </c>
-      <c r="M50">
-        <v>44</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K51">
-        <v>0.02222222222222222</v>
-      </c>
-      <c r="L51">
-        <v>7</v>
-      </c>
-      <c r="M51">
-        <v>7</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K52">
-        <v>0.02083333333333333</v>
-      </c>
-      <c r="L52">
-        <v>6</v>
-      </c>
-      <c r="M52">
-        <v>6</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
